--- a/Selenium/Bugs/data/genre/스코어.xlsx
+++ b/Selenium/Bugs/data/genre/스코어.xlsx
@@ -505,7 +505,7 @@
     <t>꽃날</t>
   </si>
   <si>
-    <t>Fly Butterfly</t>
+    <t xml:space="preserve">Fly Butterfly </t>
   </si>
   <si>
     <t>닿을 수 없는 하늘이 무너지다</t>
